--- a/Content/Table/DT_Damage.xlsx
+++ b/Content/Table/DT_Damage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\d\Content\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rs\Content\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5F5A59-AD65-42D3-99A2-E0FEDCDAA06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547A9D84-8AC8-415E-8FE5-A7801AF1F728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="4155" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="csv export" sheetId="1" r:id="rId1"/>
@@ -724,8 +724,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -837,8 +837,8 @@
         <v/>
       </c>
       <c r="M2" t="str">
-        <f>IF(Editing!M4="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Shared/" &amp; Editing!M4 &amp; "." &amp; Editing!M4 &amp; "_C'")</f>
-        <v>/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Shared/GE_Damage.GE_Damage_C'</v>
+        <f>IF(Editing!M4="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M4 &amp; "." &amp; Editing!M4 &amp; "_C'")</f>
+        <v>/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/GE_Damage.GE_Damage_C'</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -891,8 +891,8 @@
         <v/>
       </c>
       <c r="M3" t="str">
-        <f>IF(Editing!M5="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Shared/" &amp; Editing!M5 &amp; "." &amp; Editing!M5 &amp; "_C'")</f>
-        <v>/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Shared/GE_Damage.GE_Damage_C'</v>
+        <f>IF(Editing!M5="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M5 &amp; "." &amp; Editing!M5 &amp; "_C'")</f>
+        <v>/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/GE_Damage.GE_Damage_C'</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -945,8 +945,8 @@
         <v/>
       </c>
       <c r="M4" t="str">
-        <f>IF(Editing!M6="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Shared/" &amp; Editing!M6 &amp; "." &amp; Editing!M6 &amp; "_C'")</f>
-        <v>/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Shared/GE_Damage.GE_Damage_C'</v>
+        <f>IF(Editing!M6="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M6 &amp; "." &amp; Editing!M6 &amp; "_C'")</f>
+        <v>/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/GE_Damage.GE_Damage_C'</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -999,8 +999,8 @@
         <v/>
       </c>
       <c r="M5" t="str">
-        <f>IF(Editing!M7="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Shared/" &amp; Editing!M7 &amp; "." &amp; Editing!M7 &amp; "_C'")</f>
-        <v>/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Shared/GE_Damage.GE_Damage_C'</v>
+        <f>IF(Editing!M7="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M7 &amp; "." &amp; Editing!M7 &amp; "_C'")</f>
+        <v>/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/GE_Damage.GE_Damage_C'</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1053,8 +1053,8 @@
         <v/>
       </c>
       <c r="M6" t="str">
-        <f>IF(Editing!M8="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Shared/" &amp; Editing!M8 &amp; "." &amp; Editing!M8 &amp; "_C'")</f>
-        <v>/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Shared/GE_Damage.GE_Damage_C'</v>
+        <f>IF(Editing!M8="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M8 &amp; "." &amp; Editing!M8 &amp; "_C'")</f>
+        <v>/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/GE_Damage.GE_Damage_C'</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1107,8 +1107,8 @@
         <v/>
       </c>
       <c r="M7" t="str">
-        <f>IF(Editing!M9="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Shared/" &amp; Editing!M9 &amp; "." &amp; Editing!M9 &amp; "_C'")</f>
-        <v>/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Shared/GE_Damage.GE_Damage_C'</v>
+        <f>IF(Editing!M9="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M9 &amp; "." &amp; Editing!M9 &amp; "_C'")</f>
+        <v>/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/GE_Damage.GE_Damage_C'</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1161,8 +1161,8 @@
         <v/>
       </c>
       <c r="M8" t="str">
-        <f>IF(Editing!M10="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Shared/" &amp; Editing!M10 &amp; "." &amp; Editing!M10 &amp; "_C'")</f>
-        <v>/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Shared/GE_Damage.GE_Damage_C'</v>
+        <f>IF(Editing!M10="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M10 &amp; "." &amp; Editing!M10 &amp; "_C'")</f>
+        <v>/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/GE_Damage.GE_Damage_C'</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1215,8 +1215,8 @@
         <v/>
       </c>
       <c r="M9" t="str">
-        <f>IF(Editing!M11="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Shared/" &amp; Editing!M11 &amp; "." &amp; Editing!M11 &amp; "_C'")</f>
-        <v>/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Shared/GE_Damage.GE_Damage_C'</v>
+        <f>IF(Editing!M11="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M11 &amp; "." &amp; Editing!M11 &amp; "_C'")</f>
+        <v>/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/GE_Damage.GE_Damage_C'</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1269,7 +1269,7 @@
         <v/>
       </c>
       <c r="M10" t="str">
-        <f>IF(Editing!M12="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Shared/" &amp; Editing!M12 &amp; "." &amp; Editing!M12 &amp; "_C'")</f>
+        <f>IF(Editing!M12="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M12 &amp; "." &amp; Editing!M12 &amp; "_C'")</f>
         <v/>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
         <v/>
       </c>
       <c r="M11" t="str">
-        <f>IF(Editing!M13="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Shared/" &amp; Editing!M13 &amp; "." &amp; Editing!M13 &amp; "_C'")</f>
+        <f>IF(Editing!M13="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M13 &amp; "." &amp; Editing!M13 &amp; "_C'")</f>
         <v/>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
         <v/>
       </c>
       <c r="M12" t="str">
-        <f>IF(Editing!M14="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Shared/" &amp; Editing!M14 &amp; "." &amp; Editing!M14 &amp; "_C'")</f>
+        <f>IF(Editing!M14="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M14 &amp; "." &amp; Editing!M14 &amp; "_C'")</f>
         <v/>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
         <v/>
       </c>
       <c r="M13" t="str">
-        <f>IF(Editing!M15="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Shared/" &amp; Editing!M15 &amp; "." &amp; Editing!M15 &amp; "_C'")</f>
+        <f>IF(Editing!M15="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M15 &amp; "." &amp; Editing!M15 &amp; "_C'")</f>
         <v/>
       </c>
     </row>
@@ -1484,6 +1484,10 @@
         <f>IF(Editing!L16="","",Editing!L16)</f>
         <v/>
       </c>
+      <c r="M14" t="str">
+        <f>IF(Editing!M16="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M16 &amp; "." &amp; Editing!M16 &amp; "_C'")</f>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
@@ -1534,6 +1538,10 @@
         <f>IF(Editing!L17="","",Editing!L17)</f>
         <v/>
       </c>
+      <c r="M15" t="str">
+        <f>IF(Editing!M17="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M17 &amp; "." &amp; Editing!M17 &amp; "_C'")</f>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
@@ -1584,8 +1592,12 @@
         <f>IF(Editing!L18="","",Editing!L18)</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" t="str">
+        <f>IF(Editing!M18="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M18 &amp; "." &amp; Editing!M18 &amp; "_C'")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>IF(Editing!A19="", "", Editing!A19)</f>
         <v/>
@@ -1634,8 +1646,12 @@
         <f>IF(Editing!L19="","",Editing!L19)</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" t="str">
+        <f>IF(Editing!M19="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M19 &amp; "." &amp; Editing!M19 &amp; "_C'")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>IF(Editing!A20="", "", Editing!A20)</f>
         <v/>
@@ -1684,8 +1700,12 @@
         <f>IF(Editing!L20="","",Editing!L20)</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" t="str">
+        <f>IF(Editing!M20="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M20 &amp; "." &amp; Editing!M20 &amp; "_C'")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>IF(Editing!A21="", "", Editing!A21)</f>
         <v/>
@@ -1734,8 +1754,12 @@
         <f>IF(Editing!L21="","",Editing!L21)</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" t="str">
+        <f>IF(Editing!M21="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M21 &amp; "." &amp; Editing!M21 &amp; "_C'")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>IF(Editing!A22="", "", Editing!A22)</f>
         <v/>
@@ -1784,8 +1808,12 @@
         <f>IF(Editing!L22="","",Editing!L22)</f>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20" t="str">
+        <f>IF(Editing!M22="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M22 &amp; "." &amp; Editing!M22 &amp; "_C'")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>IF(Editing!A23="", "", Editing!A23)</f>
         <v/>
@@ -1834,8 +1862,12 @@
         <f>IF(Editing!L23="","",Editing!L23)</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21" t="str">
+        <f>IF(Editing!M23="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M23 &amp; "." &amp; Editing!M23 &amp; "_C'")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>IF(Editing!A24="", "", Editing!A24)</f>
         <v/>
@@ -1884,8 +1916,12 @@
         <f>IF(Editing!L24="","",Editing!L24)</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22" t="str">
+        <f>IF(Editing!M24="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M24 &amp; "." &amp; Editing!M24 &amp; "_C'")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>IF(Editing!A25="", "", Editing!A25)</f>
         <v/>
@@ -1934,8 +1970,12 @@
         <f>IF(Editing!L25="","",Editing!L25)</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23" t="str">
+        <f>IF(Editing!M25="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M25 &amp; "." &amp; Editing!M25 &amp; "_C'")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>IF(Editing!A26="", "", Editing!A26)</f>
         <v/>
@@ -1984,8 +2024,12 @@
         <f>IF(Editing!L26="","",Editing!L26)</f>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24" t="str">
+        <f>IF(Editing!M26="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M26 &amp; "." &amp; Editing!M26 &amp; "_C'")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>IF(Editing!A27="", "", Editing!A27)</f>
         <v/>
@@ -2034,8 +2078,12 @@
         <f>IF(Editing!L27="","",Editing!L27)</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25" t="str">
+        <f>IF(Editing!M27="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M27 &amp; "." &amp; Editing!M27 &amp; "_C'")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>IF(Editing!A28="", "", Editing!A28)</f>
         <v/>
@@ -2084,8 +2132,12 @@
         <f>IF(Editing!L28="","",Editing!L28)</f>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26" t="str">
+        <f>IF(Editing!M28="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M28 &amp; "." &amp; Editing!M28 &amp; "_C'")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>IF(Editing!A29="", "", Editing!A29)</f>
         <v/>
@@ -2099,7 +2151,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>IF(Editing!A30="", "", Editing!A30)</f>
         <v/>
@@ -2113,7 +2165,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>IF(Editing!A31="", "", Editing!A31)</f>
         <v/>
@@ -2127,7 +2179,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>IF(Editing!A32="", "", Editing!A32)</f>
         <v/>
@@ -2141,7 +2193,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f>IF(Editing!A33="", "", Editing!A33)</f>
         <v/>
@@ -2155,7 +2207,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f>IF(Editing!A34="", "", Editing!A34)</f>
         <v/>
@@ -3065,7 +3117,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
         <f>IF(Editing!A99="", "", Editing!A99)</f>
         <v/>
@@ -3079,7 +3131,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
         <f>IF(Editing!A100="", "", Editing!A100)</f>
         <v/>
@@ -3093,7 +3145,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f>IF(Editing!A101="", "", Editing!A101)</f>
         <v/>
@@ -3107,7 +3159,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
         <f>IF(Editing!A102="", "", Editing!A102)</f>
         <v/>
@@ -3121,7 +3173,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
         <f>IF(Editing!A103="", "", Editing!A103)</f>
         <v/>
@@ -3135,7 +3187,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
         <f>IF(Editing!A104="", "", Editing!A104)</f>
         <v/>
@@ -3149,7 +3201,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
         <f>IF(Editing!A105="", "", Editing!A105)</f>
         <v/>
@@ -3163,7 +3215,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="str">
         <f>IF(Editing!A106="", "", Editing!A106)</f>
         <v/>
@@ -3177,7 +3229,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
         <f>IF(Editing!A107="", "", Editing!A107)</f>
         <v/>
@@ -3191,7 +3243,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
         <f>IF(Editing!A108="", "", Editing!A108)</f>
         <v/>
@@ -3205,7 +3257,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
         <f>IF(Editing!A109="", "", Editing!A109)</f>
         <v/>
@@ -3219,7 +3271,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="str">
         <f>IF(Editing!A110="", "", Editing!A110)</f>
         <v/>
@@ -3233,7 +3285,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="str">
         <f>IF(Editing!A111="", "", Editing!A111)</f>
         <v/>
@@ -3247,7 +3299,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
         <f>IF(Editing!A112="", "", Editing!A112)</f>
         <v/>
@@ -3260,8 +3312,12 @@
         <f>IF(Editing!C112="","",Editing!C112)</f>
         <v/>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M110" t="str">
+        <f>IF(Editing!M112="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M112 &amp; "." &amp; Editing!M112 &amp; "_C'")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
         <f>IF(Editing!A113="", "", Editing!A113)</f>
         <v/>
@@ -3274,8 +3330,12 @@
         <f>IF(Editing!C113="","",Editing!C113)</f>
         <v/>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M111" t="str">
+        <f>IF(Editing!M113="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M113 &amp; "." &amp; Editing!M113 &amp; "_C'")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="str">
         <f>IF(Editing!A114="", "", Editing!A114)</f>
         <v/>
@@ -3288,8 +3348,12 @@
         <f>IF(Editing!C114="","",Editing!C114)</f>
         <v/>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M112" t="str">
+        <f>IF(Editing!M114="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M114 &amp; "." &amp; Editing!M114 &amp; "_C'")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="str">
         <f>IF(Editing!A115="", "", Editing!A115)</f>
         <v/>
@@ -3302,8 +3366,12 @@
         <f>IF(Editing!C115="","",Editing!C115)</f>
         <v/>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M113" t="str">
+        <f>IF(Editing!M115="","", "/Script/Engine.BlueprintGeneratedClass'/Game/AbilitySystem/Effects/Table/" &amp; Editing!M115 &amp; "." &amp; Editing!M115 &amp; "_C'")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
         <f>IF(Editing!A116="", "", Editing!A116)</f>
         <v/>
@@ -3317,7 +3385,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
         <f>IF(Editing!A117="", "", Editing!A117)</f>
         <v/>
@@ -3342,11 +3410,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M7" sqref="M7:M11"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Content/Table/DT_Damage.xlsx
+++ b/Content/Table/DT_Damage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\d\Content\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DF94D4-3C9F-4F2A-AE25-DF3C3C163D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1703ABD8-9685-4A6A-AD06-6FA1232148EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1770" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="csv export" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="66">
   <si>
     <t>---</t>
   </si>
@@ -64,18 +64,6 @@
   </si>
   <si>
     <t>EffectClass</t>
-  </si>
-  <si>
-    <t>Damage1</t>
-  </si>
-  <si>
-    <t>Damage2</t>
-  </si>
-  <si>
-    <t>Damage3</t>
-  </si>
-  <si>
-    <t>Damage4</t>
   </si>
   <si>
     <t>주석</t>
@@ -126,15 +114,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(Coefficient.HPmax.Target * 0.5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>체력 피해량(비율)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Coefficient.ATK.Source * 1)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -166,65 +146,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(Coefficient.IMP.Source * 1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Coefficient.IMP.Source * 2)</t>
-  </si>
-  <si>
-    <t>(Coefficient.IMP.Source * 3)</t>
-  </si>
-  <si>
-    <t>(Coefficient.IMP.Source * 4)</t>
-  </si>
-  <si>
-    <t>(Coefficient.IMP.Source * 5)</t>
-  </si>
-  <si>
-    <t>(Coefficient.IMP.Source * 6)</t>
-  </si>
-  <si>
-    <t>(Coefficient.IMP.Source * 7)</t>
-  </si>
-  <si>
-    <t>Nomal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KnockBack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Coefficient.HPmax.Target  * 0.9)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Coefficient.HPmax.Target * 0.8)+(Coefficient.HPmax.Target * 0.8)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Coefficient.HPmax.Target * 0.7)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Coefficient.HPmax.Target * 0.6)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GE_Damage</t>
-  </si>
-  <si>
-    <t>Damage5</t>
-  </si>
-  <si>
-    <t>Damage6</t>
-  </si>
-  <si>
-    <t>Damage7</t>
-  </si>
-  <si>
-    <t>Damage8</t>
   </si>
   <si>
     <t>열1</t>
@@ -266,12 +188,74 @@
     <t>열13</t>
   </si>
   <si>
-    <t>(Coefficient.HPmax.Target  * 0.10)</t>
+    <t>(Coefficient.HPmax.Target  * 0.10) + (Coefficient.HPmax.Target  * 0.10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(Coefficient.HPmax.Target  * 0.10) + (Coefficient.HPmax.Target  * 0.10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>D_HR_Skill_AT_01</t>
+  </si>
+  <si>
+    <t>(Coefficient.ATK.Source * 1)</t>
+  </si>
+  <si>
+    <t>(Coefficient.IMP.Source * 1)</t>
+  </si>
+  <si>
+    <t>Nomal</t>
+  </si>
+  <si>
+    <t>D_HR_Skill_AT_02</t>
+  </si>
+  <si>
+    <t>(Coefficient.ATK.Source * 1.2)</t>
+  </si>
+  <si>
+    <t>(Coefficient.IMP.Source * 1.1)</t>
+  </si>
+  <si>
+    <t>D_HR_Skill_AT_03</t>
+  </si>
+  <si>
+    <t>(Coefficient.ATK.Source * 1.3)</t>
+  </si>
+  <si>
+    <t>D_HR_Skill_AT_04</t>
+  </si>
+  <si>
+    <t>(Coefficient.ATK.Source * 4)</t>
+  </si>
+  <si>
+    <t>D_HR_Skill_CAT_01</t>
+  </si>
+  <si>
+    <t>D_HR_Skill_DAT_01</t>
+  </si>
+  <si>
+    <t>D_HR_Skill_E_01</t>
+  </si>
+  <si>
+    <t>D_HR_Skill_E_02</t>
+  </si>
+  <si>
+    <t>(Coefficient.ATK.Source * 1.5)</t>
+  </si>
+  <si>
+    <t>D_HR_Skill_Q_01</t>
+  </si>
+  <si>
+    <t>(Coefficient.ATK.Source * 3)</t>
+  </si>
+  <si>
+    <t>D_HR_Skill_R_01</t>
+  </si>
+  <si>
+    <t>(Coefficient.ATK.Source * 6)</t>
+  </si>
+  <si>
+    <t>D_HR_Skill_CAT_02</t>
+  </si>
+  <si>
+    <t>(Coefficient.ATK.Source * 12)</t>
   </si>
 </sst>
 </file>
@@ -396,64 +380,7 @@
     <cellStyle name="메모" xfId="1" builtinId="10"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -527,59 +454,7 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -621,7 +496,24 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -685,22 +577,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3864288D-7899-45E4-8DEB-173EA022A2F4}" name="표4" displayName="표4" ref="A1:M462" totalsRowShown="0" headerRowDxfId="13" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3864288D-7899-45E4-8DEB-173EA022A2F4}" name="표4" displayName="표4" ref="A1:M462" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:M462" xr:uid="{3864288D-7899-45E4-8DEB-173EA022A2F4}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{CB831C7A-1F30-426C-9D61-B1C19BCC5D71}" name="열1" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{A77EE6BB-98A7-4E91-9846-6082C07502CB}" name="열2" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{CB974743-B3A5-44D5-86CF-B23D871253CF}" name="열3" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{1CBB742C-CB75-4F85-BC23-AB4D9B52E03E}" name="열4" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{FE9DEA44-4D5D-48EB-942C-DBBA3A81F8C2}" name="열5" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{2D73DEAF-F363-4D77-A578-0F2F9534EA1C}" name="열6" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{8E367D6E-9D84-4E9F-8299-3FDE1575DC0C}" name="열7" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{A5D9AB26-284B-418D-8AEF-95CE053D23AE}" name="열8" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{DE3367D2-7329-4A22-A94B-15ED675D0E17}" name="열9" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{A88B925C-D58E-4E31-A737-A888B9EC7D62}" name="열10" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{58D8B8A3-24E5-4D68-B6A6-6598E87EC5E0}" name="열11" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{D46EF946-4D4A-43B1-8DC3-0C063DDE6648}" name="열12" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{5CCDEBBE-AAFD-4C6B-A1EB-16BFE195CBFE}" name="열13" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{CB831C7A-1F30-426C-9D61-B1C19BCC5D71}" name="열1" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{A77EE6BB-98A7-4E91-9846-6082C07502CB}" name="열2" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{CB974743-B3A5-44D5-86CF-B23D871253CF}" name="열3" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{1CBB742C-CB75-4F85-BC23-AB4D9B52E03E}" name="열4" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{FE9DEA44-4D5D-48EB-942C-DBBA3A81F8C2}" name="열5" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{2D73DEAF-F363-4D77-A578-0F2F9534EA1C}" name="열6" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{8E367D6E-9D84-4E9F-8299-3FDE1575DC0C}" name="열7" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{A5D9AB26-284B-418D-8AEF-95CE053D23AE}" name="열8" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{DE3367D2-7329-4A22-A94B-15ED675D0E17}" name="열9" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{A88B925C-D58E-4E31-A737-A888B9EC7D62}" name="열10" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{58D8B8A3-24E5-4D68-B6A6-6598E87EC5E0}" name="열11" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{D46EF946-4D4A-43B1-8DC3-0C063DDE6648}" name="열12" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{5CCDEBBE-AAFD-4C6B-A1EB-16BFE195CBFE}" name="열13" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -976,13 +868,13 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M113" sqref="M113"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.375" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
@@ -1001,16 +893,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1040,7 +932,7 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>Editing!A5</f>
-        <v>Damage1</v>
+        <v>D_HR_Skill_AT_01</v>
       </c>
       <c r="B2" t="str">
         <f>IF(Editing!B5="","",Editing!B5)</f>
@@ -1072,11 +964,11 @@
       </c>
       <c r="I2">
         <f>IF(Editing!I5="","",Editing!I5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <f>IF(Editing!J5="","",Editing!J5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K2" t="str">
         <f>IF(Editing!K5="","",Editing!K5)</f>
@@ -1094,15 +986,15 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>Editing!A6</f>
-        <v>Damage2</v>
+        <v>D_HR_Skill_AT_02</v>
       </c>
       <c r="B3" t="str">
         <f>IF(Editing!B6="","",Editing!B6)</f>
-        <v>(Coefficient.ATK.Source * 1)</v>
+        <v>(Coefficient.ATK.Source * 1.2)</v>
       </c>
       <c r="C3" t="str">
         <f>IF(Editing!C6="","",Editing!C6)</f>
-        <v>(Coefficient.IMP.Source * 2)</v>
+        <v>(Coefficient.IMP.Source * 1.1)</v>
       </c>
       <c r="D3">
         <f>IF(Editing!D6="","",Editing!D6)</f>
@@ -1110,11 +1002,11 @@
       </c>
       <c r="E3">
         <f>IF(Editing!E6="","",Editing!E6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
         <f>IF(TRIM(Editing!F6)="","", "(TagName=""Ability.HitReaction." &amp; TRIM(Editing!F6) &amp; """)")</f>
-        <v>(TagName="Ability.HitReaction.KnockBack")</v>
+        <v>(TagName="Ability.HitReaction.Nomal")</v>
       </c>
       <c r="G3">
         <f>IF(Editing!G6="","",Editing!G6)</f>
@@ -1126,11 +1018,11 @@
       </c>
       <c r="I3">
         <f>IF(Editing!I6="","",Editing!I6)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <f>IF(Editing!J6="","",Editing!J6)</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K3" t="str">
         <f>IF(Editing!K6="","",Editing!K6)</f>
@@ -1148,15 +1040,15 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>Editing!A7</f>
-        <v>Damage3</v>
+        <v>D_HR_Skill_AT_03</v>
       </c>
       <c r="B4" t="str">
         <f>IF(Editing!B7="","",Editing!B7)</f>
-        <v>(Coefficient.HPmax.Target * 0.5)</v>
+        <v>(Coefficient.ATK.Source * 1.3)</v>
       </c>
       <c r="C4" t="str">
         <f>IF(Editing!C7="","",Editing!C7)</f>
-        <v>(Coefficient.IMP.Source * 3)</v>
+        <v>(Coefficient.IMP.Source * 1.1)</v>
       </c>
       <c r="D4">
         <f>IF(Editing!D7="","",Editing!D7)</f>
@@ -1168,7 +1060,7 @@
       </c>
       <c r="F4" t="str">
         <f>IF(TRIM(Editing!F7)="","", "(TagName=""Ability.HitReaction." &amp; TRIM(Editing!F7) &amp; """)")</f>
-        <v/>
+        <v>(TagName="Ability.HitReaction.Nomal")</v>
       </c>
       <c r="G4">
         <f>IF(Editing!G7="","",Editing!G7)</f>
@@ -1180,11 +1072,11 @@
       </c>
       <c r="I4">
         <f>IF(Editing!I7="","",Editing!I7)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <f>IF(Editing!J7="","",Editing!J7)</f>
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="K4" t="str">
         <f>IF(Editing!K7="","",Editing!K7)</f>
@@ -1202,27 +1094,27 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>Editing!A8</f>
-        <v>Damage4</v>
+        <v>D_HR_Skill_AT_04</v>
       </c>
       <c r="B5" t="str">
         <f>IF(Editing!B8="","",Editing!B8)</f>
-        <v>(Coefficient.HPmax.Target * 0.6)</v>
+        <v>(Coefficient.ATK.Source * 4)</v>
       </c>
       <c r="C5" t="str">
         <f>IF(Editing!C8="","",Editing!C8)</f>
-        <v>(Coefficient.IMP.Source * 4)</v>
+        <v>(Coefficient.IMP.Source * 1.1)</v>
       </c>
       <c r="D5">
         <f>IF(Editing!D8="","",Editing!D8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f>IF(Editing!E8="","",Editing!E8)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="str">
         <f>IF(TRIM(Editing!F8)="","", "(TagName=""Ability.HitReaction." &amp; TRIM(Editing!F8) &amp; """)")</f>
-        <v/>
+        <v>(TagName="Ability.HitReaction.Nomal")</v>
       </c>
       <c r="G5">
         <f>IF(Editing!G8="","",Editing!G8)</f>
@@ -1234,11 +1126,11 @@
       </c>
       <c r="I5">
         <f>IF(Editing!I8="","",Editing!I8)</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <f>IF(Editing!J8="","",Editing!J8)</f>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K5" t="str">
         <f>IF(Editing!K8="","",Editing!K8)</f>
@@ -1256,27 +1148,27 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>Editing!A9</f>
-        <v>Damage5</v>
+        <v>D_HR_Skill_CAT_01</v>
       </c>
       <c r="B6" t="str">
         <f>IF(Editing!B9="","",Editing!B9)</f>
-        <v>(Coefficient.HPmax.Target * 0.7)</v>
+        <v>(Coefficient.ATK.Source * 1.2)</v>
       </c>
       <c r="C6" t="str">
         <f>IF(Editing!C9="","",Editing!C9)</f>
-        <v>(Coefficient.IMP.Source * 5)</v>
+        <v>(Coefficient.IMP.Source * 1.1)</v>
       </c>
       <c r="D6">
         <f>IF(Editing!D9="","",Editing!D9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f>IF(Editing!E9="","",Editing!E9)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="str">
         <f>IF(TRIM(Editing!F9)="","", "(TagName=""Ability.HitReaction." &amp; TRIM(Editing!F9) &amp; """)")</f>
-        <v/>
+        <v>(TagName="Ability.HitReaction.Nomal")</v>
       </c>
       <c r="G6">
         <f>IF(Editing!G9="","",Editing!G9)</f>
@@ -1288,11 +1180,11 @@
       </c>
       <c r="I6">
         <f>IF(Editing!I9="","",Editing!I9)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f>IF(Editing!J9="","",Editing!J9)</f>
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="K6" t="str">
         <f>IF(Editing!K9="","",Editing!K9)</f>
@@ -1310,27 +1202,27 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>Editing!A10</f>
-        <v>Damage6</v>
+        <v>D_HR_Skill_DAT_01</v>
       </c>
       <c r="B7" t="str">
         <f>IF(Editing!B10="","",Editing!B10)</f>
-        <v>(Coefficient.HPmax.Target * 0.8)+(Coefficient.HPmax.Target * 0.8)</v>
+        <v>(Coefficient.ATK.Source * 1.3)</v>
       </c>
       <c r="C7" t="str">
         <f>IF(Editing!C10="","",Editing!C10)</f>
-        <v>(Coefficient.IMP.Source * 6)</v>
+        <v>(Coefficient.IMP.Source * 1.1)</v>
       </c>
       <c r="D7">
         <f>IF(Editing!D10="","",Editing!D10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <f>IF(Editing!E10="","",Editing!E10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="str">
         <f>IF(TRIM(Editing!F10)="","", "(TagName=""Ability.HitReaction." &amp; TRIM(Editing!F10) &amp; """)")</f>
-        <v/>
+        <v>(TagName="Ability.HitReaction.Nomal")</v>
       </c>
       <c r="G7">
         <f>IF(Editing!G10="","",Editing!G10)</f>
@@ -1342,11 +1234,11 @@
       </c>
       <c r="I7">
         <f>IF(Editing!I10="","",Editing!I10)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <f>IF(Editing!J10="","",Editing!J10)</f>
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="K7" t="str">
         <f>IF(Editing!K10="","",Editing!K10)</f>
@@ -1364,27 +1256,27 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>Editing!A11</f>
-        <v>Damage7</v>
+        <v>D_HR_Skill_E_01</v>
       </c>
       <c r="B8" t="str">
         <f>IF(Editing!B11="","",Editing!B11)</f>
-        <v>(Coefficient.HPmax.Target  * 0.9)</v>
+        <v>(Coefficient.ATK.Source * 1)</v>
       </c>
       <c r="C8" t="str">
         <f>IF(Editing!C11="","",Editing!C11)</f>
-        <v>(Coefficient.IMP.Source * 7)</v>
+        <v>(Coefficient.IMP.Source * 1.1)</v>
       </c>
       <c r="D8">
         <f>IF(Editing!D11="","",Editing!D11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f>IF(Editing!E11="","",Editing!E11)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="str">
         <f>IF(TRIM(Editing!F11)="","", "(TagName=""Ability.HitReaction." &amp; TRIM(Editing!F11) &amp; """)")</f>
-        <v/>
+        <v>(TagName="Ability.HitReaction.Nomal")</v>
       </c>
       <c r="G8">
         <f>IF(Editing!G11="","",Editing!G11)</f>
@@ -1396,11 +1288,11 @@
       </c>
       <c r="I8">
         <f>IF(Editing!I11="","",Editing!I11)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <f>IF(Editing!J11="","",Editing!J11)</f>
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="K8" t="str">
         <f>IF(Editing!K11="","",Editing!K11)</f>
@@ -1418,27 +1310,27 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>Editing!A12</f>
-        <v>Damage8</v>
+        <v>D_HR_Skill_E_02</v>
       </c>
       <c r="B9" t="str">
         <f>IF(Editing!B12="","",Editing!B12)</f>
-        <v>(Coefficient.HPmax.Target  * 0.10)</v>
-      </c>
-      <c r="C9">
+        <v>(Coefficient.ATK.Source * 1.5)</v>
+      </c>
+      <c r="C9" t="str">
         <f>IF(Editing!C12="","",Editing!C12)</f>
-        <v>50</v>
+        <v>(Coefficient.IMP.Source * 1.1)</v>
       </c>
       <c r="D9">
         <f>IF(Editing!D12="","",Editing!D12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <f>IF(Editing!E12="","",Editing!E12)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="str">
         <f>IF(TRIM(Editing!F12)="","", "(TagName=""Ability.HitReaction." &amp; TRIM(Editing!F12) &amp; """)")</f>
-        <v/>
+        <v>(TagName="Ability.HitReaction.Nomal")</v>
       </c>
       <c r="G9">
         <f>IF(Editing!G12="","",Editing!G12)</f>
@@ -1450,11 +1342,11 @@
       </c>
       <c r="I9">
         <f>IF(Editing!I12="","",Editing!I12)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <f>IF(Editing!J12="","",Editing!J12)</f>
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="K9" t="str">
         <f>IF(Editing!K12="","",Editing!K12)</f>
@@ -1470,45 +1362,45 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" t="str">
         <f>Editing!A13</f>
-        <v>0</v>
+        <v>D_HR_Skill_Q_01</v>
       </c>
       <c r="B10" t="str">
         <f>IF(Editing!B13="","",Editing!B13)</f>
-        <v>(Coefficient.HPmax.Target  * 0.10)</v>
+        <v>(Coefficient.ATK.Source * 3)</v>
       </c>
       <c r="C10" t="str">
         <f>IF(Editing!C13="","",Editing!C13)</f>
-        <v/>
-      </c>
-      <c r="D10" t="str">
+        <v>(Coefficient.IMP.Source * 1.1)</v>
+      </c>
+      <c r="D10">
         <f>IF(Editing!D13="","",Editing!D13)</f>
-        <v/>
-      </c>
-      <c r="E10" t="str">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <f>IF(Editing!E13="","",Editing!E13)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F10" t="str">
         <f>IF(TRIM(Editing!F13)="","", "(TagName=""Ability.HitReaction." &amp; TRIM(Editing!F13) &amp; """)")</f>
-        <v/>
-      </c>
-      <c r="G10" t="str">
+        <v>(TagName="Ability.HitReaction.Nomal")</v>
+      </c>
+      <c r="G10">
         <f>IF(Editing!G13="","",Editing!G13)</f>
-        <v/>
-      </c>
-      <c r="H10" t="str">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <f>IF(Editing!H13="","",Editing!H13)</f>
-        <v/>
-      </c>
-      <c r="I10" t="str">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <f>IF(Editing!I13="","",Editing!I13)</f>
-        <v/>
-      </c>
-      <c r="J10" t="str">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <f>IF(Editing!J13="","",Editing!J13)</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="K10" t="str">
         <f>IF(Editing!K13="","",Editing!K13)</f>
@@ -1524,45 +1416,45 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" t="str">
         <f>Editing!A14</f>
-        <v>0</v>
+        <v>D_HR_Skill_R_01</v>
       </c>
       <c r="B11" t="str">
         <f>IF(Editing!B14="","",Editing!B14)</f>
-        <v/>
+        <v>(Coefficient.ATK.Source * 6)</v>
       </c>
       <c r="C11" t="str">
         <f>IF(Editing!C14="","",Editing!C14)</f>
-        <v/>
-      </c>
-      <c r="D11" t="str">
+        <v>(Coefficient.IMP.Source * 1.1)</v>
+      </c>
+      <c r="D11">
         <f>IF(Editing!D14="","",Editing!D14)</f>
-        <v/>
-      </c>
-      <c r="E11" t="str">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <f>IF(Editing!E14="","",Editing!E14)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="F11" t="str">
         <f>IF(TRIM(Editing!F14)="","", "(TagName=""Ability.HitReaction." &amp; TRIM(Editing!F14) &amp; """)")</f>
-        <v/>
-      </c>
-      <c r="G11" t="str">
+        <v>(TagName="Ability.HitReaction.Nomal")</v>
+      </c>
+      <c r="G11">
         <f>IF(Editing!G14="","",Editing!G14)</f>
-        <v/>
-      </c>
-      <c r="H11" t="str">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <f>IF(Editing!H14="","",Editing!H14)</f>
-        <v/>
-      </c>
-      <c r="I11" t="str">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <f>IF(Editing!I14="","",Editing!I14)</f>
-        <v/>
-      </c>
-      <c r="J11" t="str">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <f>IF(Editing!J14="","",Editing!J14)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K11" t="str">
         <f>IF(Editing!K14="","",Editing!K14)</f>
@@ -1578,45 +1470,45 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" t="str">
         <f>Editing!A15</f>
-        <v>0</v>
+        <v>D_HR_Skill_CAT_02</v>
       </c>
       <c r="B12" t="str">
         <f>IF(Editing!B15="","",Editing!B15)</f>
-        <v/>
+        <v>(Coefficient.ATK.Source * 12)</v>
       </c>
       <c r="C12" t="str">
         <f>IF(Editing!C15="","",Editing!C15)</f>
-        <v/>
-      </c>
-      <c r="D12" t="str">
+        <v>(Coefficient.IMP.Source * 1.1)</v>
+      </c>
+      <c r="D12">
         <f>IF(Editing!D15="","",Editing!D15)</f>
-        <v/>
-      </c>
-      <c r="E12" t="str">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <f>IF(Editing!E15="","",Editing!E15)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="F12" t="str">
         <f>IF(TRIM(Editing!F15)="","", "(TagName=""Ability.HitReaction." &amp; TRIM(Editing!F15) &amp; """)")</f>
-        <v/>
-      </c>
-      <c r="G12" t="str">
+        <v>(TagName="Ability.HitReaction.Nomal")</v>
+      </c>
+      <c r="G12">
         <f>IF(Editing!G15="","",Editing!G15)</f>
-        <v/>
-      </c>
-      <c r="H12" t="str">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <f>IF(Editing!H15="","",Editing!H15)</f>
-        <v/>
-      </c>
-      <c r="I12" t="str">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <f>IF(Editing!I15="","",Editing!I15)</f>
-        <v/>
-      </c>
-      <c r="J12" t="str">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <f>IF(Editing!J15="","",Editing!J15)</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="K12" t="str">
         <f>IF(Editing!K15="","",Editing!K15)</f>
@@ -23736,7 +23628,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23758,84 +23650,84 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -23859,10 +23751,10 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M3" s="4"/>
     </row>
@@ -23871,16 +23763,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>1</v>
@@ -23909,13 +23801,13 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -23924,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G5" s="1">
         <v>0.1</v>
@@ -23933,33 +23825,33 @@
         <v>0.1</v>
       </c>
       <c r="I5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G6" s="1">
         <v>0.1</v>
@@ -23968,30 +23860,33 @@
         <v>0.1</v>
       </c>
       <c r="I6" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G7" s="1">
         <v>0.5</v>
@@ -24000,62 +23895,68 @@
         <v>0.5</v>
       </c>
       <c r="I7" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>100</v>
-      </c>
       <c r="J8" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
-        <v>2</v>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
@@ -24064,30 +23965,33 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
-        <v>2</v>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -24096,30 +24000,33 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="M10" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
@@ -24128,55 +24035,149 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="1">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>8</v>
+      </c>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>100</v>
-      </c>
-      <c r="J12" s="1">
-        <v>100</v>
-      </c>
-      <c r="M12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>66</v>
+      <c r="F14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
@@ -25654,17 +25655,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B5:C1048576">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>_xlfn.LET(_xlpm.txt,B5,_xlpm.openCnt,LEN(_xlpm.txt)-LEN(SUBSTITUTE(_xlpm.txt,"(","")),IF(_xlpm.openCnt=0,FALSE,_xlfn.LET(_xlpm.goodCnt,(LEN(_xlpm.txt)-LEN(SUBSTITUTE(_xlpm.txt,"Coefficient.","")))/LEN("Coefficient."),_xlpm.hasBadStat,NOT(OR(ISNUMBER(SEARCH("Coefficient.HPmax.",_xlpm.txt)),ISNUMBER(SEARCH("Coefficient.HPcur.",_xlpm.txt)),ISNUMBER(SEARCH("Coefficient.UPcur.",_xlpm.txt)),ISNUMBER(SEARCH("Coefficient.ATK.",_xlpm.txt)),ISNUMBER(SEARCH("Coefficient.IMP.",_xlpm.txt)),ISNUMBER(SEARCH("Coefficient.DEF.",_xlpm.txt)),ISNUMBER(SEARCH("Coefficient.BP.",_xlpm.txt)))),_xlpm.hasBadTarget,NOT(OR(ISNUMBER(SEARCH(".Target *",_xlpm.txt)),ISNUMBER(SEARCH(".Source *",_xlpm.txt)))),OR(_xlpm.openCnt&lt;&gt;_xlpm.goodCnt,_xlpm.hasBadStat,_xlpm.hasBadTarget))))</formula>
+  <conditionalFormatting sqref="B5:B1048576">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>_xlfn.LET(  _xlpm.txt,B5,  _xlpm.onlySpecial,SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlpm.txt,"+",""),"-",""),"*",""),"/",""),"(",""),")",""),  _xlpm.hasForbiddenSpecial, SUM(--ISNUMBER(FIND(MID(_xlpm.onlySpecial,ROW(INDIRECT("1:"&amp;LEN(_xlpm.onlySpecial))),1),"!@#$%^&amp;_=[]\{}|;:'"",&lt;&gt;?~`")))&gt;0,  _xlpm.hasForbiddenSpecial )</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>LEN(B5)-LEN(SUBSTITUTE(B5,"(",""))&lt;&gt;LEN(B5)-LEN(SUBSTITUTE(B5,")",""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B1048576">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>LEN(B5)-LEN(SUBSTITUTE(B5,"(",""))&lt;&gt;LEN(B5)-LEN(SUBSTITUTE(B5,")",""))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>_xlfn.LET(  _xlpm.txt,B5,  _xlpm.onlySpecial,SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(_xlpm.txt,"+",""),"-",""),"*",""),"/",""),"(",""),")",""),  _xlpm.hasForbiddenSpecial, SUM(--ISNUMBER(FIND(MID(_xlpm.onlySpecial,ROW(INDIRECT("1:"&amp;LEN(_xlpm.onlySpecial))),1),"!@#$%^&amp;_=[]\{}|;:'"",&lt;&gt;?~`")))&gt;0,  _xlpm.hasForbiddenSpecial )</formula>
+  <conditionalFormatting sqref="B5:C1048576">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>_xlfn.LET(_xlpm.txt,B5,_xlpm.openCnt,LEN(_xlpm.txt)-LEN(SUBSTITUTE(_xlpm.txt,"(","")),IF(_xlpm.openCnt=0,FALSE,_xlfn.LET(_xlpm.goodCnt,(LEN(_xlpm.txt)-LEN(SUBSTITUTE(_xlpm.txt,"Coefficient.","")))/LEN("Coefficient."),_xlpm.hasBadStat,NOT(OR(ISNUMBER(SEARCH("Coefficient.HPmax.",_xlpm.txt)),ISNUMBER(SEARCH("Coefficient.HPcur.",_xlpm.txt)),ISNUMBER(SEARCH("Coefficient.UPcur.",_xlpm.txt)),ISNUMBER(SEARCH("Coefficient.ATK.",_xlpm.txt)),ISNUMBER(SEARCH("Coefficient.IMP.",_xlpm.txt)),ISNUMBER(SEARCH("Coefficient.DEF.",_xlpm.txt)),ISNUMBER(SEARCH("Coefficient.BP.",_xlpm.txt)))),_xlpm.hasBadTarget,NOT(OR(ISNUMBER(SEARCH(".Target *",_xlpm.txt)),ISNUMBER(SEARCH(".Source *",_xlpm.txt)))),OR(_xlpm.openCnt&lt;&gt;_xlpm.goodCnt,_xlpm.hasBadStat,_xlpm.hasBadTarget))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Content/Table/DT_Damage.xlsx
+++ b/Content/Table/DT_Damage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\d\Content\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B304FE26-1423-4871-BA8F-A5B869A9733E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18E3F97-3BB0-4524-9575-AD4CBDC568CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1755" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="csv export" sheetId="1" r:id="rId1"/>
@@ -20219,15 +20219,15 @@
   <dimension ref="A1:T462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="35.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.625" style="1" bestFit="1" customWidth="1"/>

--- a/Content/Table/DT_Damage.xlsx
+++ b/Content/Table/DT_Damage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\d\Content\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18E3F97-3BB0-4524-9575-AD4CBDC568CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB89370-9C4A-4924-9996-A2F5961BBCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1755" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="csv export" sheetId="1" r:id="rId1"/>
@@ -826,11 +826,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K421"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1:L1048576"/>
+      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -896,11 +896,11 @@
         <f>IF(Editing!C5="","",Editing!C5)</f>
         <v>(Coefficient.IMP.Source * 1)</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="b">
         <f>IF(Editing!D5="","",Editing!D5)</f>
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="b">
         <f>IF(Editing!E5="","",Editing!E5)</f>
         <v>0</v>
       </c>
@@ -942,11 +942,11 @@
         <f>IF(Editing!C6="","",Editing!C6)</f>
         <v>(Coefficient.IMP.Source * 1.1)</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="b">
         <f>IF(Editing!D6="","",Editing!D6)</f>
         <v>0</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="b">
         <f>IF(Editing!E6="","",Editing!E6)</f>
         <v>0</v>
       </c>
@@ -988,11 +988,11 @@
         <f>IF(Editing!C7="","",Editing!C7)</f>
         <v>(Coefficient.IMP.Source * 1.1)</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="b">
         <f>IF(Editing!D7="","",Editing!D7)</f>
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="b">
         <f>IF(Editing!E7="","",Editing!E7)</f>
         <v>0</v>
       </c>
@@ -1034,11 +1034,11 @@
         <f>IF(Editing!C8="","",Editing!C8)</f>
         <v>(Coefficient.IMP.Source * 1.1)</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="b">
         <f>IF(Editing!D8="","",Editing!D8)</f>
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="b">
         <f>IF(Editing!E8="","",Editing!E8)</f>
         <v>0</v>
       </c>
@@ -1080,13 +1080,13 @@
         <f>IF(Editing!C9="","",Editing!C9)</f>
         <v>(Coefficient.IMP.Source * 1.1)</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="b">
         <f>IF(Editing!D9="","",Editing!D9)</f>
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="b">
         <f>IF(Editing!E9="","",Editing!E9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="str">
         <f>IF(TRIM(Editing!F9)="","", "(TagName=""Ability.HitReaction." &amp; TRIM(Editing!F9) &amp; """)")</f>
@@ -1126,13 +1126,13 @@
         <f>IF(Editing!C10="","",Editing!C10)</f>
         <v>(Coefficient.IMP.Source * 1.1)</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="b">
         <f>IF(Editing!D10="","",Editing!D10)</f>
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="b">
         <f>IF(Editing!E10="","",Editing!E10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
         <f>IF(TRIM(Editing!F10)="","", "(TagName=""Ability.HitReaction." &amp; TRIM(Editing!F10) &amp; """)")</f>
@@ -1172,11 +1172,11 @@
         <f>IF(Editing!C11="","",Editing!C11)</f>
         <v>(Coefficient.IMP.Source * 1.1)</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="b">
         <f>IF(Editing!D11="","",Editing!D11)</f>
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="b">
         <f>IF(Editing!E11="","",Editing!E11)</f>
         <v>0</v>
       </c>
@@ -1218,11 +1218,11 @@
         <f>IF(Editing!C12="","",Editing!C12)</f>
         <v>(Coefficient.IMP.Source * 1.1)</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="b">
         <f>IF(Editing!D12="","",Editing!D12)</f>
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="b">
         <f>IF(Editing!E12="","",Editing!E12)</f>
         <v>0</v>
       </c>
@@ -1264,11 +1264,11 @@
         <f>IF(Editing!C13="","",Editing!C13)</f>
         <v>(Coefficient.IMP.Source * 1.1)</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="b">
         <f>IF(Editing!D13="","",Editing!D13)</f>
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="b">
         <f>IF(Editing!E13="","",Editing!E13)</f>
         <v>0</v>
       </c>
@@ -1310,13 +1310,13 @@
         <f>IF(Editing!C14="","",Editing!C14)</f>
         <v>(Coefficient.IMP.Source * 1.1)</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="b">
         <f>IF(Editing!D14="","",Editing!D14)</f>
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="b">
         <f>IF(Editing!E14="","",Editing!E14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="str">
         <f>IF(TRIM(Editing!F14)="","", "(TagName=""Ability.HitReaction." &amp; TRIM(Editing!F14) &amp; """)")</f>
@@ -1356,13 +1356,13 @@
         <f>IF(Editing!C15="","",Editing!C15)</f>
         <v>(Coefficient.IMP.Source * 1.1)</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="b">
         <f>IF(Editing!D15="","",Editing!D15)</f>
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="b">
         <f>IF(Editing!E15="","",Editing!E15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="str">
         <f>IF(TRIM(Editing!F15)="","", "(TagName=""Ability.HitReaction." &amp; TRIM(Editing!F15) &amp; """)")</f>
@@ -20218,11 +20218,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T462"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20377,10 +20377,10 @@
       <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -20412,10 +20412,10 @@
       <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -20447,10 +20447,10 @@
       <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="D7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -20482,10 +20482,10 @@
       <c r="C8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -20517,11 +20517,11 @@
       <c r="C9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
+      <c r="D9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>40</v>
@@ -20552,11 +20552,11 @@
       <c r="C10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
+      <c r="D10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>40</v>
@@ -20587,10 +20587,10 @@
       <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -20622,10 +20622,10 @@
       <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="D12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -20657,10 +20657,10 @@
       <c r="C13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -20689,11 +20689,11 @@
       <c r="C14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="1">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
+      <c r="D14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>40</v>
@@ -20721,11 +20721,11 @@
       <c r="C15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
+      <c r="D15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>40</v>
